--- a/meta/procedure.xlsx
+++ b/meta/procedure.xlsx
@@ -10,7 +10,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjyBIQ/nHGR01GO12gCuiseWfo26w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjEtNTL/FoW4gFuARFfzu8FNHtxqw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -40,26 +40,19 @@
 ======</t>
       </text>
     </comment>
+    <comment authorId="0" ref="D1">
+      <text>
+        <t xml:space="preserve">Grade variant notes
+======</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="F1">
       <text>
         <t xml:space="preserve">Any notes/tips before listing procedure steps. For bullets use dash and space "- ". Use ALT+ENTER to add line break within a cell
 ======</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D1">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAMVQDj8Q
-Matt Wilkins    (2021-05-11 00:58:45)
-Grade variant notes</t>
-      </text>
-    </comment>
   </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhulG/YmKGxZutAipusU+2UHh6l9A=="/>
-    </ext>
-  </extLst>
 </comments>
 </file>
 
@@ -97,7 +90,7 @@
     <comment authorId="0" ref="G1">
       <text>
         <t xml:space="preserve">Concise description (used in "Teach it in 15" Presentation)
-*To insert a link to 1 of our vids, use {vid1} for video 1 on the teaching-links.xlsx file
+*To insert a link to 1 of our vids, use {vid1} for video 1 on the teaching-materials.xlsx file
 ======</t>
       </text>
     </comment>
@@ -127,20 +120,7 @@
 ======</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I1">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAMVQDj8U
-Matt Wilkins    (2021-05-11 00:58:45)
-Use word=def (alt+enter to make new line) for each entry. It'll be formatted into bullets</t>
-      </text>
-    </comment>
   </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhwLgN0IRLrp9JLqNZC8JPZ/Ra04Q=="/>
-    </ext>
-  </extLst>
 </comments>
 </file>
 
@@ -536,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -618,12 +598,6 @@
     </xf>
     <xf borderId="12" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
@@ -10185,7 +10159,7 @@
       <c r="J3" s="31"/>
       <c r="K3" s="28"/>
       <c r="M3" s="24"/>
-      <c r="N3" s="32"/>
+      <c r="N3" s="25"/>
       <c r="O3" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10247,11 +10221,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="33"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="30"/>
       <c r="H5" s="28"/>
@@ -10278,11 +10252,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="28"/>
-      <c r="E6" s="33"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="30"/>
       <c r="H6" s="28"/>
@@ -10309,11 +10283,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="33"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="30"/>
       <c r="H7" s="28"/>
@@ -10340,12 +10314,12 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
-      <c r="F8" s="34"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="30"/>
       <c r="H8" s="28"/>
       <c r="I8" s="31"/>
@@ -10748,7 +10722,7 @@
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="34"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="30"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
